--- a/data/pca/factorExposure/factorExposure_2009-10-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-10-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.0147692793012196</v>
+        <v>0.01686310869562473</v>
       </c>
       <c r="C2">
-        <v>-0.001576239090703148</v>
+        <v>-0.0008646135092509163</v>
       </c>
       <c r="D2">
-        <v>0.001266739708392981</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.00881103907837767</v>
+      </c>
+      <c r="E2">
+        <v>0.001778689791811156</v>
+      </c>
+      <c r="F2">
+        <v>0.01267397078152855</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.101855685151751</v>
+        <v>0.09373539217213414</v>
       </c>
       <c r="C4">
-        <v>-0.01984872783140096</v>
+        <v>-0.01443586330018579</v>
       </c>
       <c r="D4">
-        <v>-0.07118897781760475</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0837369453442109</v>
+      </c>
+      <c r="E4">
+        <v>0.02850757108726733</v>
+      </c>
+      <c r="F4">
+        <v>-0.03190398644246487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1372844598836276</v>
+        <v>0.1587534545363108</v>
       </c>
       <c r="C6">
-        <v>-0.02566772232371109</v>
+        <v>-0.02626122471287669</v>
       </c>
       <c r="D6">
-        <v>0.01188467571499273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02284945445571557</v>
+      </c>
+      <c r="E6">
+        <v>0.01035403749312848</v>
+      </c>
+      <c r="F6">
+        <v>-0.04373129724130261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.0704647841698831</v>
+        <v>0.06383017966210233</v>
       </c>
       <c r="C7">
-        <v>-0.002332562222243499</v>
+        <v>0.001632683488513425</v>
       </c>
       <c r="D7">
-        <v>-0.03441514466623134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05272063204153214</v>
+      </c>
+      <c r="E7">
+        <v>0.01208331352620252</v>
+      </c>
+      <c r="F7">
+        <v>-0.04767480505216573</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06117581325172798</v>
+        <v>0.05734745205913848</v>
       </c>
       <c r="C8">
-        <v>0.01088634486531586</v>
+        <v>0.0134107935721982</v>
       </c>
       <c r="D8">
-        <v>-0.01486347673493109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.0322426603462299</v>
+      </c>
+      <c r="E8">
+        <v>0.01760133937895247</v>
+      </c>
+      <c r="F8">
+        <v>0.02719099805774476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.07935057294899613</v>
+        <v>0.07092743248665023</v>
       </c>
       <c r="C9">
-        <v>-0.01666780127623434</v>
+        <v>-0.01018751957217056</v>
       </c>
       <c r="D9">
-        <v>-0.06748925418550047</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08688124425778801</v>
+      </c>
+      <c r="E9">
+        <v>0.02331959257256929</v>
+      </c>
+      <c r="F9">
+        <v>-0.04789876038971869</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08381881639758473</v>
+        <v>0.09218927203138964</v>
       </c>
       <c r="C10">
-        <v>-0.008732927849532763</v>
+        <v>-0.02102330271440148</v>
       </c>
       <c r="D10">
-        <v>0.171400678725035</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1649756584301122</v>
+      </c>
+      <c r="E10">
+        <v>-0.03237659423890644</v>
+      </c>
+      <c r="F10">
+        <v>0.05516062052152779</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09475471096093926</v>
+        <v>0.08811881445442021</v>
       </c>
       <c r="C11">
-        <v>-0.01681237652267522</v>
+        <v>-0.01016610114071701</v>
       </c>
       <c r="D11">
-        <v>-0.0990310122813791</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.117103019209073</v>
+      </c>
+      <c r="E11">
+        <v>0.04603228678451837</v>
+      </c>
+      <c r="F11">
+        <v>-0.0230760435743899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.1018917744292215</v>
+        <v>0.09203196934917755</v>
       </c>
       <c r="C12">
-        <v>-0.01529227251460412</v>
+        <v>-0.007540977696407838</v>
       </c>
       <c r="D12">
-        <v>-0.09806531748229461</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1320695395827947</v>
+      </c>
+      <c r="E12">
+        <v>0.04619588611511261</v>
+      </c>
+      <c r="F12">
+        <v>-0.02903145703729666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04185298799939772</v>
+        <v>0.04159697610981737</v>
       </c>
       <c r="C13">
-        <v>-0.005770238151418145</v>
+        <v>-0.002342666743690508</v>
       </c>
       <c r="D13">
-        <v>-0.03573525858742713</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05388146675602459</v>
+      </c>
+      <c r="E13">
+        <v>-0.00436358517970548</v>
+      </c>
+      <c r="F13">
+        <v>-0.001840984721606812</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02204972623974192</v>
+        <v>0.02409511354137781</v>
       </c>
       <c r="C14">
-        <v>-0.01513110276262761</v>
+        <v>-0.01378455897484541</v>
       </c>
       <c r="D14">
-        <v>-0.02057671848868319</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0328669616749423</v>
+      </c>
+      <c r="E14">
+        <v>0.01885255488640502</v>
+      </c>
+      <c r="F14">
+        <v>-0.01334549763611173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03601577455432518</v>
+        <v>0.03273759625708709</v>
       </c>
       <c r="C15">
-        <v>-0.007984346945769601</v>
+        <v>-0.004554989216010829</v>
       </c>
       <c r="D15">
-        <v>-0.02665727007054077</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04471697437669236</v>
+      </c>
+      <c r="E15">
+        <v>0.00580928580175645</v>
+      </c>
+      <c r="F15">
+        <v>-0.02460254837241693</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07849256444536597</v>
+        <v>0.07431493986230725</v>
       </c>
       <c r="C16">
-        <v>-0.008711985538874038</v>
+        <v>-0.000781714701769555</v>
       </c>
       <c r="D16">
-        <v>-0.09810909523666982</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1276727193154944</v>
+      </c>
+      <c r="E16">
+        <v>0.06077198390536701</v>
+      </c>
+      <c r="F16">
+        <v>-0.02710828307879278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0006306438370217455</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0001719533895928571</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001115690415331735</v>
+      </c>
+      <c r="E17">
+        <v>0.0007331594128348452</v>
+      </c>
+      <c r="F17">
+        <v>0.001070882053193718</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.002318686198323362</v>
+        <v>0.03613340474540234</v>
       </c>
       <c r="C18">
-        <v>0.0008984364537942384</v>
+        <v>0.003029642011906203</v>
       </c>
       <c r="D18">
-        <v>-0.003548601887900237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01600653399689996</v>
+      </c>
+      <c r="E18">
+        <v>-0.009073759439700953</v>
+      </c>
+      <c r="F18">
+        <v>0.009242695488722186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06334740890016648</v>
+        <v>0.06183286020135571</v>
       </c>
       <c r="C20">
-        <v>-0.006294812169406841</v>
+        <v>7.971783119717856e-05</v>
       </c>
       <c r="D20">
-        <v>-0.03957340649183762</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07799355882542461</v>
+      </c>
+      <c r="E20">
+        <v>0.05628597182083039</v>
+      </c>
+      <c r="F20">
+        <v>-0.02559847908670635</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04593552405918676</v>
+        <v>0.04087126626623013</v>
       </c>
       <c r="C21">
-        <v>-0.009814944189011056</v>
+        <v>-0.006424157445552536</v>
       </c>
       <c r="D21">
-        <v>-0.01200950858774585</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03776894878704627</v>
+      </c>
+      <c r="E21">
+        <v>-0.001637054259924837</v>
+      </c>
+      <c r="F21">
+        <v>0.02481109497941309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.03408767365702157</v>
+        <v>0.04326639818799871</v>
       </c>
       <c r="C22">
-        <v>-0.0004223675510306149</v>
+        <v>-0.0003884606035852794</v>
       </c>
       <c r="D22">
-        <v>0.01604152909583329</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.007035042389561505</v>
+      </c>
+      <c r="E22">
+        <v>0.03545931128467831</v>
+      </c>
+      <c r="F22">
+        <v>0.03685176519428972</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.03404438097069057</v>
+        <v>0.04324228090540053</v>
       </c>
       <c r="C23">
-        <v>-0.0004142390902599219</v>
+        <v>-0.0003800918193121058</v>
       </c>
       <c r="D23">
-        <v>0.01602133462780989</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.007050430824201353</v>
+      </c>
+      <c r="E23">
+        <v>0.03564170764242719</v>
+      </c>
+      <c r="F23">
+        <v>0.03681303136980579</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.0860472201167352</v>
+        <v>0.08000321704321364</v>
       </c>
       <c r="C24">
-        <v>-0.008637953352541125</v>
+        <v>-0.001428822846791508</v>
       </c>
       <c r="D24">
-        <v>-0.1059493728789435</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1214023897072736</v>
+      </c>
+      <c r="E24">
+        <v>0.0488165909546454</v>
+      </c>
+      <c r="F24">
+        <v>-0.02739821942943863</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09318853048083237</v>
+        <v>0.08530929740285777</v>
       </c>
       <c r="C25">
-        <v>-0.01064393170578042</v>
+        <v>-0.004155224073244937</v>
       </c>
       <c r="D25">
-        <v>-0.09064269350955288</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.109562893449779</v>
+      </c>
+      <c r="E25">
+        <v>0.03212440960775142</v>
+      </c>
+      <c r="F25">
+        <v>-0.02745866771107665</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.06056320719822969</v>
+        <v>0.05926556226425145</v>
       </c>
       <c r="C26">
-        <v>-0.01770324597480395</v>
+        <v>-0.01432554648712422</v>
       </c>
       <c r="D26">
-        <v>-0.01291632133198295</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04076648161089338</v>
+      </c>
+      <c r="E26">
+        <v>0.02865753747623419</v>
+      </c>
+      <c r="F26">
+        <v>0.00693506478429216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1380287419263323</v>
+        <v>0.1424767614834485</v>
       </c>
       <c r="C28">
-        <v>-0.004693058337256657</v>
+        <v>-0.02223939950143663</v>
       </c>
       <c r="D28">
-        <v>0.2735697475739602</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2611089770518218</v>
+      </c>
+      <c r="E28">
+        <v>-0.06702108520880139</v>
+      </c>
+      <c r="F28">
+        <v>-0.007435292863067162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02622008754804271</v>
+        <v>0.02869323261795758</v>
       </c>
       <c r="C29">
-        <v>-0.009920335692026922</v>
+        <v>-0.008660045134796936</v>
       </c>
       <c r="D29">
-        <v>-0.0170798590005452</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03110805345072316</v>
+      </c>
+      <c r="E29">
+        <v>0.01389936326502809</v>
+      </c>
+      <c r="F29">
+        <v>0.01323478211321643</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.07143483056856151</v>
+        <v>0.05913497360367122</v>
       </c>
       <c r="C30">
-        <v>-0.009385793496494018</v>
+        <v>-0.002489165937937888</v>
       </c>
       <c r="D30">
-        <v>-0.07760053241015982</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.0894782768330709</v>
+      </c>
+      <c r="E30">
+        <v>0.01570973193260221</v>
+      </c>
+      <c r="F30">
+        <v>-0.0783621620411606</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05133503791469966</v>
+        <v>0.05091220526794715</v>
       </c>
       <c r="C31">
-        <v>-0.01594042077298629</v>
+        <v>-0.01531379247933992</v>
       </c>
       <c r="D31">
-        <v>-0.01901488608997251</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02500329902646756</v>
+      </c>
+      <c r="E31">
+        <v>0.02852862064871531</v>
+      </c>
+      <c r="F31">
+        <v>0.001362487085408134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04884737741834432</v>
+        <v>0.05130444778496623</v>
       </c>
       <c r="C32">
-        <v>-0.001464615413455022</v>
+        <v>0.001999088537872073</v>
       </c>
       <c r="D32">
-        <v>-0.02297185308483659</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03643185994177104</v>
+      </c>
+      <c r="E32">
+        <v>0.03393913337148768</v>
+      </c>
+      <c r="F32">
+        <v>-0.00401138577861022</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09863974727009692</v>
+        <v>0.08933227952661216</v>
       </c>
       <c r="C33">
-        <v>-0.01301130323019163</v>
+        <v>-0.006621460165682145</v>
       </c>
       <c r="D33">
-        <v>-0.07894394438249862</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1012670707966224</v>
+      </c>
+      <c r="E33">
+        <v>0.04370383576976787</v>
+      </c>
+      <c r="F33">
+        <v>-0.03746779169972962</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.07599291068226482</v>
+        <v>0.06791087026435702</v>
       </c>
       <c r="C34">
-        <v>-0.01537740595532436</v>
+        <v>-0.009913915436847264</v>
       </c>
       <c r="D34">
-        <v>-0.09035805546656107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1093714210045139</v>
+      </c>
+      <c r="E34">
+        <v>0.03443328537837761</v>
+      </c>
+      <c r="F34">
+        <v>-0.03376293063407995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02259644769018295</v>
+        <v>0.02511962772741666</v>
       </c>
       <c r="C35">
-        <v>-0.00251024612339228</v>
+        <v>-0.002485700240136107</v>
       </c>
       <c r="D35">
-        <v>-0.004149155895610702</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01132929844715483</v>
+      </c>
+      <c r="E35">
+        <v>0.01173778219938702</v>
+      </c>
+      <c r="F35">
+        <v>-0.0009427235282257074</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01848580223384777</v>
+        <v>0.02766046649068298</v>
       </c>
       <c r="C36">
-        <v>-0.009243343597845663</v>
+        <v>-0.006785131095116303</v>
       </c>
       <c r="D36">
-        <v>-0.02855916114732312</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.0399432162425627</v>
+      </c>
+      <c r="E36">
+        <v>0.0165878393160222</v>
+      </c>
+      <c r="F36">
+        <v>-0.0158797066744572</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.0006368813581542983</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0005938082889001255</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.00254462301862421</v>
+      </c>
+      <c r="E37">
+        <v>-0.001166356039121319</v>
+      </c>
+      <c r="F37">
+        <v>-0.0003450973154745184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0007091589382367195</v>
+        <v>-0.0004461831576656898</v>
       </c>
       <c r="C38">
-        <v>9.666245123808922e-05</v>
+        <v>0.0001573965637269608</v>
       </c>
       <c r="D38">
-        <v>-0.001276872607401507</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0007066977210631563</v>
+      </c>
+      <c r="E38">
+        <v>-0.0001471580845130077</v>
+      </c>
+      <c r="F38">
+        <v>0.0003393240009456829</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1264420961223868</v>
+        <v>0.1043814867928076</v>
       </c>
       <c r="C39">
-        <v>-0.02352480512306247</v>
+        <v>-0.0153363126191041</v>
       </c>
       <c r="D39">
-        <v>-0.1462744715419766</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1549577588972202</v>
+      </c>
+      <c r="E39">
+        <v>0.05962729229720597</v>
+      </c>
+      <c r="F39">
+        <v>-0.03018873205594117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.03112810648663829</v>
+        <v>0.0412939029213334</v>
       </c>
       <c r="C40">
-        <v>-0.009573292617903325</v>
+        <v>-0.007007600236224246</v>
       </c>
       <c r="D40">
-        <v>0.009278018137169749</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03040550825991653</v>
+      </c>
+      <c r="E40">
+        <v>0.001695297535477046</v>
+      </c>
+      <c r="F40">
+        <v>0.01554323614634238</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02354116182150664</v>
+        <v>0.02791197295443261</v>
       </c>
       <c r="C41">
-        <v>-0.007077466528388103</v>
+        <v>-0.006844631767559518</v>
       </c>
       <c r="D41">
-        <v>-0.005395840197105393</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01099511170832961</v>
+      </c>
+      <c r="E41">
+        <v>0.01236417729510919</v>
+      </c>
+      <c r="F41">
+        <v>0.005691311302192693</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.03775367538908259</v>
+        <v>0.04068404135799245</v>
       </c>
       <c r="C43">
-        <v>-0.008183390239736368</v>
+        <v>-0.00699174004617525</v>
       </c>
       <c r="D43">
-        <v>-0.007747620688810498</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01907117166059485</v>
+      </c>
+      <c r="E43">
+        <v>0.02523737329360758</v>
+      </c>
+      <c r="F43">
+        <v>0.01217911379722905</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.08492793509743787</v>
+        <v>0.07954823088810391</v>
       </c>
       <c r="C44">
-        <v>-0.02664034408033189</v>
+        <v>-0.01915902708906488</v>
       </c>
       <c r="D44">
-        <v>-0.07221966100381023</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09760264684331769</v>
+      </c>
+      <c r="E44">
+        <v>0.06176256082567898</v>
+      </c>
+      <c r="F44">
+        <v>-0.1558907615517987</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.01707094684271375</v>
+        <v>0.02355625508201767</v>
       </c>
       <c r="C46">
-        <v>-0.004029535838264847</v>
+        <v>-0.003301372619608108</v>
       </c>
       <c r="D46">
-        <v>0.001360237538094972</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01334584630602345</v>
+      </c>
+      <c r="E46">
+        <v>0.02644814206912636</v>
+      </c>
+      <c r="F46">
+        <v>0.00588546665586258</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05008889104032057</v>
+        <v>0.05253348583639449</v>
       </c>
       <c r="C47">
-        <v>-0.003561485555196768</v>
+        <v>-0.003455704955516197</v>
       </c>
       <c r="D47">
-        <v>-0.001661439823821442</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01324847192110997</v>
+      </c>
+      <c r="E47">
+        <v>0.02337233131475344</v>
+      </c>
+      <c r="F47">
+        <v>0.03172756974481668</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04696811301785591</v>
+        <v>0.05045114095848696</v>
       </c>
       <c r="C48">
-        <v>-0.005482496458549476</v>
+        <v>-0.002123288533362958</v>
       </c>
       <c r="D48">
-        <v>-0.03774706976918285</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05030557182376292</v>
+      </c>
+      <c r="E48">
+        <v>-0.00473368393079701</v>
+      </c>
+      <c r="F48">
+        <v>-0.009984945019745646</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2039763950902486</v>
+        <v>0.2002433862822068</v>
       </c>
       <c r="C49">
-        <v>-0.01584180446834858</v>
+        <v>-0.0186400608410783</v>
       </c>
       <c r="D49">
-        <v>0.006997471548010386</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.005969393232960492</v>
+      </c>
+      <c r="E49">
+        <v>0.03087256349807034</v>
+      </c>
+      <c r="F49">
+        <v>-0.0373595734847473</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.05181718857620977</v>
+        <v>0.05128965461714424</v>
       </c>
       <c r="C50">
-        <v>-0.01199616060355204</v>
+        <v>-0.01103733737443845</v>
       </c>
       <c r="D50">
-        <v>-0.01811620630670082</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0248405500430956</v>
+      </c>
+      <c r="E50">
+        <v>0.03013684019561625</v>
+      </c>
+      <c r="F50">
+        <v>-0.009635871280855877</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1579668146607787</v>
+        <v>0.1478179798540432</v>
       </c>
       <c r="C52">
-        <v>-0.01589833160639227</v>
+        <v>-0.01683977985680326</v>
       </c>
       <c r="D52">
-        <v>-0.05982472300248101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04276140654166925</v>
+      </c>
+      <c r="E52">
+        <v>0.02003865946187383</v>
+      </c>
+      <c r="F52">
+        <v>-0.04361747471444481</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1683397916043743</v>
+        <v>0.1712621835989139</v>
       </c>
       <c r="C53">
-        <v>-0.01568349806430151</v>
+        <v>-0.01944915068389082</v>
       </c>
       <c r="D53">
-        <v>-0.0287553371222065</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005438653378156026</v>
+      </c>
+      <c r="E53">
+        <v>0.02855782736342323</v>
+      </c>
+      <c r="F53">
+        <v>-0.07429891068274329</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.02250282571735569</v>
+        <v>0.02098821622434588</v>
       </c>
       <c r="C54">
-        <v>-0.01225788882967497</v>
+        <v>-0.01131210698745332</v>
       </c>
       <c r="D54">
-        <v>-0.02007930035873022</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03455821708265985</v>
+      </c>
+      <c r="E54">
+        <v>0.02205039529798989</v>
+      </c>
+      <c r="F54">
+        <v>0.004981237042947954</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1169210106178422</v>
+        <v>0.1144045290149826</v>
       </c>
       <c r="C55">
-        <v>-0.01430616215823002</v>
+        <v>-0.01721257904055153</v>
       </c>
       <c r="D55">
-        <v>-0.02108193420387146</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.0077265095398788</v>
+      </c>
+      <c r="E55">
+        <v>0.02389766026568195</v>
+      </c>
+      <c r="F55">
+        <v>-0.04704782180238787</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1762558325625204</v>
+        <v>0.1769444945457179</v>
       </c>
       <c r="C56">
-        <v>-0.01352584219679482</v>
+        <v>-0.0173623685047719</v>
       </c>
       <c r="D56">
-        <v>-0.008444962861706519</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.001653032878233252</v>
+      </c>
+      <c r="E56">
+        <v>0.03374611722369771</v>
+      </c>
+      <c r="F56">
+        <v>-0.05197046866361842</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04183988961172291</v>
+        <v>0.04496624349572922</v>
       </c>
       <c r="C58">
-        <v>-0.006647888130912569</v>
+        <v>0.000500549205489439</v>
       </c>
       <c r="D58">
-        <v>-0.04678006556863156</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07165134566499459</v>
+      </c>
+      <c r="E58">
+        <v>0.03245853360438916</v>
+      </c>
+      <c r="F58">
+        <v>0.03901673237736594</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1670526830868954</v>
+        <v>0.1680235479740782</v>
       </c>
       <c r="C59">
-        <v>-0.005105808967865655</v>
+        <v>-0.02227555899920825</v>
       </c>
       <c r="D59">
-        <v>0.2271074655082627</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2169666051400225</v>
+      </c>
+      <c r="E59">
+        <v>-0.04618351237940081</v>
+      </c>
+      <c r="F59">
+        <v>0.03565612560785113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2460184693079764</v>
+        <v>0.2316609633595447</v>
       </c>
       <c r="C60">
-        <v>0.004972595789431418</v>
+        <v>0.002579615260782254</v>
       </c>
       <c r="D60">
-        <v>-0.05981823137455553</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04158662254704602</v>
+      </c>
+      <c r="E60">
+        <v>0.008981623030564956</v>
+      </c>
+      <c r="F60">
+        <v>0.005359112287274538</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.09561730260536477</v>
+        <v>0.08030872715215323</v>
       </c>
       <c r="C61">
-        <v>-0.01706482599538087</v>
+        <v>-0.01104005066481659</v>
       </c>
       <c r="D61">
-        <v>-0.09726849789497191</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1179897753722698</v>
+      </c>
+      <c r="E61">
+        <v>0.03942997286462009</v>
+      </c>
+      <c r="F61">
+        <v>-0.01365679926986905</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1718533178751175</v>
+        <v>0.1695788801822083</v>
       </c>
       <c r="C62">
-        <v>-0.01702932365776356</v>
+        <v>-0.02037533190999473</v>
       </c>
       <c r="D62">
-        <v>-0.0117079161076202</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005831267347187831</v>
+      </c>
+      <c r="E62">
+        <v>0.03388737911555963</v>
+      </c>
+      <c r="F62">
+        <v>-0.03554269488750291</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04706080878574763</v>
+        <v>0.04584051081666914</v>
       </c>
       <c r="C63">
-        <v>-0.006278627898029677</v>
+        <v>-0.00160223018052759</v>
       </c>
       <c r="D63">
-        <v>-0.04172092181345042</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05909079576303768</v>
+      </c>
+      <c r="E63">
+        <v>0.02330186722934085</v>
+      </c>
+      <c r="F63">
+        <v>-0.003742467064738953</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1028133606700964</v>
+        <v>0.1103985255009459</v>
       </c>
       <c r="C64">
-        <v>-0.01395469636844312</v>
+        <v>-0.01122970120636828</v>
       </c>
       <c r="D64">
-        <v>-0.01955288193278586</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04352073757585432</v>
+      </c>
+      <c r="E64">
+        <v>0.02210107400708752</v>
+      </c>
+      <c r="F64">
+        <v>-0.02574390076930413</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1309559336288696</v>
+        <v>0.1500096810817838</v>
       </c>
       <c r="C65">
-        <v>-0.03156878047760524</v>
+        <v>-0.03376401089545838</v>
       </c>
       <c r="D65">
-        <v>0.02665954471173392</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04318393199225932</v>
+      </c>
+      <c r="E65">
+        <v>0.006518923611345467</v>
+      </c>
+      <c r="F65">
+        <v>-0.03869912357525899</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1519267272501199</v>
+        <v>0.1236937913557189</v>
       </c>
       <c r="C66">
-        <v>-0.0199496464839906</v>
+        <v>-0.01317265494020674</v>
       </c>
       <c r="D66">
-        <v>-0.1266182937121459</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1434498714077798</v>
+      </c>
+      <c r="E66">
+        <v>0.0654664458733047</v>
+      </c>
+      <c r="F66">
+        <v>-0.03469276956640705</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06006431878752705</v>
+        <v>0.05755896509899555</v>
       </c>
       <c r="C67">
-        <v>-0.004816141728769932</v>
+        <v>-0.002697696217143916</v>
       </c>
       <c r="D67">
-        <v>-0.05697378273464317</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05613003450556876</v>
+      </c>
+      <c r="E67">
+        <v>0.01659157386021788</v>
+      </c>
+      <c r="F67">
+        <v>0.03120469093021391</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1076686760849563</v>
+        <v>0.1165294849985412</v>
       </c>
       <c r="C68">
-        <v>-0.01499550879701274</v>
+        <v>-0.03285911499774843</v>
       </c>
       <c r="D68">
-        <v>0.2645585405825259</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2610568074657744</v>
+      </c>
+      <c r="E68">
+        <v>-0.08701071355848108</v>
+      </c>
+      <c r="F68">
+        <v>-0.003230436909659909</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03949838902807119</v>
+        <v>0.03930737373817701</v>
       </c>
       <c r="C69">
-        <v>-0.0004875687328776951</v>
+        <v>-0.00113524989363316</v>
       </c>
       <c r="D69">
-        <v>-0.01005127149513302</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008305683490023284</v>
+      </c>
+      <c r="E69">
+        <v>0.02374558036953063</v>
+      </c>
+      <c r="F69">
+        <v>-0.001026884747689558</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.0592784016313154</v>
+        <v>0.06633013708519107</v>
       </c>
       <c r="C70">
-        <v>0.02435065615658098</v>
+        <v>0.02761215029923351</v>
       </c>
       <c r="D70">
-        <v>0.02871274619254746</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02389579259060559</v>
+      </c>
+      <c r="E70">
+        <v>-0.03372085006641194</v>
+      </c>
+      <c r="F70">
+        <v>0.1854666371866143</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1226523060036728</v>
+        <v>0.13642790483437</v>
       </c>
       <c r="C71">
-        <v>-0.01909050595791227</v>
+        <v>-0.03719147765424943</v>
       </c>
       <c r="D71">
-        <v>0.2817393810575907</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.272501561452771</v>
+      </c>
+      <c r="E71">
+        <v>-0.09743956637069465</v>
+      </c>
+      <c r="F71">
+        <v>-0.008510649227241481</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1361631538092055</v>
+        <v>0.1425984038743798</v>
       </c>
       <c r="C72">
-        <v>-0.02462025581664798</v>
+        <v>-0.02704008940621086</v>
       </c>
       <c r="D72">
-        <v>-0.006221239336496273</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.003517400370776436</v>
+      </c>
+      <c r="E72">
+        <v>0.03587592830778363</v>
+      </c>
+      <c r="F72">
+        <v>-0.03214693541203918</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.1992330573386757</v>
+        <v>0.2038551161681051</v>
       </c>
       <c r="C73">
-        <v>-0.01145312041593522</v>
+        <v>-0.01256685088705736</v>
       </c>
       <c r="D73">
-        <v>-0.01792237693485115</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01774252953800396</v>
+      </c>
+      <c r="E73">
+        <v>0.06307444542593367</v>
+      </c>
+      <c r="F73">
+        <v>-0.03752278070057474</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.09152747580642744</v>
+        <v>0.09496943844024183</v>
       </c>
       <c r="C74">
-        <v>-0.01128586146933691</v>
+        <v>-0.01324930909513745</v>
       </c>
       <c r="D74">
-        <v>-0.03275128683638426</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01705272421139337</v>
+      </c>
+      <c r="E74">
+        <v>0.04432566631566204</v>
+      </c>
+      <c r="F74">
+        <v>-0.05819617172993649</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1369045066062788</v>
+        <v>0.1275502040870829</v>
       </c>
       <c r="C75">
-        <v>-0.02629551913312171</v>
+        <v>-0.02804931495809992</v>
       </c>
       <c r="D75">
-        <v>-0.04267963166216933</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03044027478109936</v>
+      </c>
+      <c r="E75">
+        <v>0.05804382952439487</v>
+      </c>
+      <c r="F75">
+        <v>-0.0227772413551154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07095423819899158</v>
+        <v>0.08779765121424775</v>
       </c>
       <c r="C77">
-        <v>-0.01537603046619506</v>
+        <v>-0.007887503103206439</v>
       </c>
       <c r="D77">
-        <v>-0.09232507503664085</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1117415676654382</v>
+      </c>
+      <c r="E77">
+        <v>0.03808670259803861</v>
+      </c>
+      <c r="F77">
+        <v>-0.03569590854325081</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1007269583110115</v>
+        <v>0.1000507064724728</v>
       </c>
       <c r="C78">
-        <v>-0.0465445403501443</v>
+        <v>-0.03936459474338339</v>
       </c>
       <c r="D78">
-        <v>-0.101660859604116</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1129390368135303</v>
+      </c>
+      <c r="E78">
+        <v>0.07373655376391385</v>
+      </c>
+      <c r="F78">
+        <v>-0.04881225402450536</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1664891119374841</v>
+        <v>0.1636891497270383</v>
       </c>
       <c r="C79">
-        <v>-0.02056234189321414</v>
+        <v>-0.02272278077608263</v>
       </c>
       <c r="D79">
-        <v>-0.01638084462428128</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01476541491614651</v>
+      </c>
+      <c r="E79">
+        <v>0.04637004195136505</v>
+      </c>
+      <c r="F79">
+        <v>-0.01254494302896928</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08951158562119309</v>
+        <v>0.0825355805561004</v>
       </c>
       <c r="C80">
-        <v>-0.0007798826919148107</v>
+        <v>0.001047868561586836</v>
       </c>
       <c r="D80">
-        <v>-0.05246002589629699</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05607186267435808</v>
+      </c>
+      <c r="E80">
+        <v>0.03565535278034334</v>
+      </c>
+      <c r="F80">
+        <v>0.02093947552364647</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1206354302026539</v>
+        <v>0.1192392196491538</v>
       </c>
       <c r="C81">
-        <v>-0.0287418612377774</v>
+        <v>-0.03182935992433344</v>
       </c>
       <c r="D81">
-        <v>-0.04731214616168542</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.0153906151964103</v>
+      </c>
+      <c r="E81">
+        <v>0.05703721571691522</v>
+      </c>
+      <c r="F81">
+        <v>-0.01915463242638736</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1671003372789104</v>
+        <v>0.1655492264757006</v>
       </c>
       <c r="C82">
-        <v>-0.02015803318784361</v>
+        <v>-0.02469426715042312</v>
       </c>
       <c r="D82">
-        <v>-0.03153117287741143</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.004126885388262798</v>
+      </c>
+      <c r="E82">
+        <v>0.02646118964540456</v>
+      </c>
+      <c r="F82">
+        <v>-0.081638803082144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06948067269530002</v>
+        <v>0.05840866116102197</v>
       </c>
       <c r="C83">
-        <v>-0.005459590886934203</v>
+        <v>-0.002580401294394385</v>
       </c>
       <c r="D83">
-        <v>-0.03043652765426101</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05108373256851511</v>
+      </c>
+      <c r="E83">
+        <v>0.003010058882517222</v>
+      </c>
+      <c r="F83">
+        <v>0.03017011839227903</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06932813192778459</v>
+        <v>0.05938971576494729</v>
       </c>
       <c r="C84">
-        <v>-0.01421093051816572</v>
+        <v>-0.01107087489545823</v>
       </c>
       <c r="D84">
-        <v>-0.05283811222171257</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06347136244380143</v>
+      </c>
+      <c r="E84">
+        <v>0.007106948043100074</v>
+      </c>
+      <c r="F84">
+        <v>-0.005973383870598378</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.139072230994347</v>
+        <v>0.1356003691039575</v>
       </c>
       <c r="C85">
-        <v>-0.02560417107791432</v>
+        <v>-0.02803598755749398</v>
       </c>
       <c r="D85">
-        <v>-0.02229612890285263</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009492979021920301</v>
+      </c>
+      <c r="E85">
+        <v>0.03640387231331296</v>
+      </c>
+      <c r="F85">
+        <v>-0.04783124449731336</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.09920997812219279</v>
+        <v>0.09500236042412642</v>
       </c>
       <c r="C86">
-        <v>0.001548395031507865</v>
+        <v>0.005533095411261178</v>
       </c>
       <c r="D86">
-        <v>0.02750013190348537</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0422529735515513</v>
+      </c>
+      <c r="E86">
+        <v>0.2316534467324698</v>
+      </c>
+      <c r="F86">
+        <v>0.9041940099847813</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1029335016327108</v>
+        <v>0.09483740752762262</v>
       </c>
       <c r="C87">
-        <v>-0.0279314515353457</v>
+        <v>-0.01912626616771561</v>
       </c>
       <c r="D87">
-        <v>-0.05111032328728356</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09405163827282617</v>
+      </c>
+      <c r="E87">
+        <v>-0.05412895374412618</v>
+      </c>
+      <c r="F87">
+        <v>-0.04713462657429546</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05654975415139045</v>
+        <v>0.06083042044984594</v>
       </c>
       <c r="C88">
-        <v>-0.005719587796054879</v>
+        <v>-0.002129685253591801</v>
       </c>
       <c r="D88">
-        <v>-0.04697571357262063</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04973342651517569</v>
+      </c>
+      <c r="E88">
+        <v>0.02451411202016893</v>
+      </c>
+      <c r="F88">
+        <v>-0.01413963756516716</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1219947024745349</v>
+        <v>0.1306625662132634</v>
       </c>
       <c r="C89">
-        <v>0.002455455824226071</v>
+        <v>-0.01367927247020152</v>
       </c>
       <c r="D89">
-        <v>0.2782834279597414</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2467445756242148</v>
+      </c>
+      <c r="E89">
+        <v>-0.08852042826473092</v>
+      </c>
+      <c r="F89">
+        <v>0.009429503872252071</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1363120213173213</v>
+        <v>0.1513278773580602</v>
       </c>
       <c r="C90">
-        <v>-0.01571755367613904</v>
+        <v>-0.03401593689272687</v>
       </c>
       <c r="D90">
-        <v>0.2870268226319644</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2713229167104871</v>
+      </c>
+      <c r="E90">
+        <v>-0.1137281169516016</v>
+      </c>
+      <c r="F90">
+        <v>0.008608164939919588</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1168848760208574</v>
+        <v>0.1207965517959124</v>
       </c>
       <c r="C91">
-        <v>-0.01553772016647977</v>
+        <v>-0.01966205021755515</v>
       </c>
       <c r="D91">
-        <v>0.002002464594387307</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01489297068983586</v>
+      </c>
+      <c r="E91">
+        <v>0.05541389286403019</v>
+      </c>
+      <c r="F91">
+        <v>0.0004385670464978208</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1480230282391149</v>
+        <v>0.1480265775682141</v>
       </c>
       <c r="C92">
-        <v>-0.003797443398878069</v>
+        <v>-0.02470195360902955</v>
       </c>
       <c r="D92">
-        <v>0.3124733017037088</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2910482966147463</v>
+      </c>
+      <c r="E92">
+        <v>-0.1013642405267633</v>
+      </c>
+      <c r="F92">
+        <v>0.01302531662245222</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1378094194249965</v>
+        <v>0.1514949388046831</v>
       </c>
       <c r="C93">
-        <v>-0.01117002962254408</v>
+        <v>-0.02899830845541331</v>
       </c>
       <c r="D93">
-        <v>0.2698569351253513</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2667963807546859</v>
+      </c>
+      <c r="E93">
+        <v>-0.07829970091720923</v>
+      </c>
+      <c r="F93">
+        <v>-0.002350875601582643</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1333755318512183</v>
+        <v>0.1283035013776935</v>
       </c>
       <c r="C94">
-        <v>-0.02365179198967239</v>
+        <v>-0.02436847253248179</v>
       </c>
       <c r="D94">
-        <v>-0.05859626055173964</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04216433152719682</v>
+      </c>
+      <c r="E94">
+        <v>0.05725581098333316</v>
+      </c>
+      <c r="F94">
+        <v>-0.03667476317951227</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1248922133927565</v>
+        <v>0.1264801859215192</v>
       </c>
       <c r="C95">
-        <v>-0.009715951757552223</v>
+        <v>-0.002958254609724987</v>
       </c>
       <c r="D95">
-        <v>-0.06889627816877222</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09492209850740245</v>
+      </c>
+      <c r="E95">
+        <v>0.04955961979959787</v>
+      </c>
+      <c r="F95">
+        <v>0.005816100083788766</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.09762240547896307</v>
+        <v>0.1080893369794853</v>
       </c>
       <c r="C96">
-        <v>0.9897540948891896</v>
+        <v>0.9871958924270418</v>
       </c>
       <c r="D96">
-        <v>-0.008155250827328105</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05175582903245208</v>
+      </c>
+      <c r="E96">
+        <v>0.05318719976960375</v>
+      </c>
+      <c r="F96">
+        <v>-0.04252945129549793</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1788385925046333</v>
+        <v>0.1908480120006361</v>
       </c>
       <c r="C97">
-        <v>0.009278397344887807</v>
+        <v>0.00693674668248402</v>
       </c>
       <c r="D97">
-        <v>0.02969747661647493</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02076139260517824</v>
+      </c>
+      <c r="E97">
+        <v>0.01996505399808963</v>
+      </c>
+      <c r="F97">
+        <v>0.09055123396415413</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1945426852446675</v>
+        <v>0.2057463912966154</v>
       </c>
       <c r="C98">
-        <v>-0.006790077817596313</v>
+        <v>-0.006851422871195063</v>
       </c>
       <c r="D98">
-        <v>0.01077071005884879</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01275744032823718</v>
+      </c>
+      <c r="E98">
+        <v>-0.07810126863840088</v>
+      </c>
+      <c r="F98">
+        <v>0.09375834294656704</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05417136191654394</v>
+        <v>0.05453160150071943</v>
       </c>
       <c r="C99">
-        <v>0.002935665434437378</v>
+        <v>0.004685985459644931</v>
       </c>
       <c r="D99">
-        <v>-0.02084045308990946</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03980129530163669</v>
+      </c>
+      <c r="E99">
+        <v>0.0222506277559372</v>
+      </c>
+      <c r="F99">
+        <v>-0.002450805745238381</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1346614956561871</v>
+        <v>0.1272628788369698</v>
       </c>
       <c r="C100">
-        <v>0.03190939341501517</v>
+        <v>0.05395927785961224</v>
       </c>
       <c r="D100">
-        <v>-0.3964942880716676</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3465404025305127</v>
+      </c>
+      <c r="E100">
+        <v>-0.8852975479157794</v>
+      </c>
+      <c r="F100">
+        <v>0.1597991216560909</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02602625868103957</v>
+        <v>0.02865739820550062</v>
       </c>
       <c r="C101">
-        <v>-0.009876198877417303</v>
+        <v>-0.008685813150666829</v>
       </c>
       <c r="D101">
-        <v>-0.01638673343276896</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03070943546634529</v>
+      </c>
+      <c r="E101">
+        <v>0.01329514794955655</v>
+      </c>
+      <c r="F101">
+        <v>0.01445533506468711</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
